--- a/Finflux Automation Excels/Client/4925-EI-DB-SAR-PartialPeriod-InitialBrokenPeriod-PostInterest-Undo1stRepayment.xlsx
+++ b/Finflux Automation Excels/Client/4925-EI-DB-SAR-PartialPeriod-InitialBrokenPeriod-PostInterest-Undo1stRepayment.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>clickontransactiontab</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Over Due</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t>Interest</t>
@@ -142,26 +139,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,7 +440,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +490,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,357 +503,353 @@
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5">
+        <v>41897</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4">
+        <v>10053.33</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
+        <v>200</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2">
+        <v>200</v>
+      </c>
+      <c r="L2" s="2">
+        <v>200</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>47</v>
+      </c>
+      <c r="C3" s="5">
+        <v>41944</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="4">
+        <v>1634.47</v>
+      </c>
+      <c r="G3" s="4">
+        <v>8418.86</v>
+      </c>
+      <c r="H3" s="2">
+        <v>100.53</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1735</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="6">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5">
+        <v>41974</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="4">
+        <v>1650.81</v>
+      </c>
+      <c r="G4" s="4">
+        <v>6768.05</v>
+      </c>
+      <c r="H4" s="2">
+        <v>84.19</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1735</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="6">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>31</v>
+      </c>
+      <c r="C5" s="5">
+        <v>42005</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="4">
+        <v>1667.32</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5100.7299999999996</v>
+      </c>
+      <c r="H5" s="2">
+        <v>67.680000000000007</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1735</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="6">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5">
+        <v>42036</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="4">
+        <v>1683.99</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3416.74</v>
+      </c>
+      <c r="H6" s="2">
+        <v>51.01</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1735</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="6">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5">
+        <v>42064</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4">
+        <v>1700.83</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1715.91</v>
+      </c>
+      <c r="H7" s="2">
+        <v>34.17</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1735</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="6">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="6">
-        <v>41897</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3">
-        <v>10053.33</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4">
-        <v>300</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4">
-        <v>300</v>
-      </c>
-      <c r="L2" s="4">
-        <v>300</v>
-      </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>47</v>
-      </c>
-      <c r="C3" s="6">
-        <v>41944</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3">
-        <v>1634.47</v>
-      </c>
-      <c r="G3" s="3">
-        <v>8418.86</v>
-      </c>
-      <c r="H3" s="4">
-        <v>100.53</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>1735</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4">
-        <v>0</v>
-      </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="7">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <v>30</v>
-      </c>
-      <c r="C4" s="6">
-        <v>41974</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3">
-        <v>1650.81</v>
-      </c>
-      <c r="G4" s="3">
-        <v>6768.05</v>
-      </c>
-      <c r="H4" s="4">
-        <v>84.19</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>1735</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="7">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="B8" s="2">
         <v>31</v>
       </c>
-      <c r="C5" s="6">
-        <v>42005</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3">
-        <v>1667.32</v>
-      </c>
-      <c r="G5" s="3">
-        <v>5100.7299999999996</v>
-      </c>
-      <c r="H5" s="4">
-        <v>67.680000000000007</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>1735</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4">
-        <v>0</v>
-      </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="7">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
-        <v>31</v>
-      </c>
-      <c r="C6" s="6">
-        <v>42036</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3">
-        <v>1683.99</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3416.74</v>
-      </c>
-      <c r="H6" s="4">
-        <v>51.01</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>1735</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="7">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4">
-        <v>28</v>
-      </c>
-      <c r="C7" s="6">
-        <v>42064</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3">
-        <v>1700.83</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="C8" s="5">
+        <v>42095</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4">
         <v>1715.91</v>
       </c>
-      <c r="H7" s="4">
-        <v>34.17</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>1735</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4">
-        <v>0</v>
-      </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="7">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4">
-        <v>31</v>
-      </c>
-      <c r="C8" s="6">
-        <v>42095</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3">
-        <v>1715.91</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
         <v>19.09</v>
       </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>1735</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4">
-        <v>0</v>
-      </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="7">
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1735</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="6">
         <v>1735</v>
       </c>
     </row>
@@ -873,112 +863,112 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>10053.33</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
         <v>10053.33</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>8337.42</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>356.67</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
         <v>356.67</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>337.58</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>300</v>
-      </c>
-      <c r="B4" s="4">
-        <v>300</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="A4" s="2">
+        <v>200</v>
+      </c>
+      <c r="B4" s="2">
+        <v>200</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Finflux Automation Excels/Client/4925-EI-DB-SAR-PartialPeriod-InitialBrokenPeriod-PostInterest-Undo1stRepayment.xlsx
+++ b/Finflux Automation Excels/Client/4925-EI-DB-SAR-PartialPeriod-InitialBrokenPeriod-PostInterest-Undo1stRepayment.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
@@ -96,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +106,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -139,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -157,6 +164,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,21 +498,21 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="10.7109375" style="7" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -596,10 +604,10 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="4">
-        <v>1634.47</v>
+        <v>1632.64</v>
       </c>
       <c r="G3" s="4">
-        <v>8418.86</v>
+        <v>8420.69</v>
       </c>
       <c r="H3" s="2">
         <v>100.53</v>
@@ -610,8 +618,8 @@
       <c r="J3" s="2">
         <v>0</v>
       </c>
-      <c r="K3" s="6">
-        <v>1735</v>
+      <c r="K3" s="4">
+        <v>1733.17</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
@@ -624,8 +632,8 @@
         <v>0</v>
       </c>
       <c r="P3" s="2"/>
-      <c r="Q3" s="6">
-        <v>1735</v>
+      <c r="Q3" s="4">
+        <v>1733.17</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -641,13 +649,13 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="4">
-        <v>1650.81</v>
+        <v>1650.79</v>
       </c>
       <c r="G4" s="4">
-        <v>6768.05</v>
+        <v>6769.9</v>
       </c>
       <c r="H4" s="2">
-        <v>84.19</v>
+        <v>84.21</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -686,13 +694,13 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="4">
-        <v>1667.32</v>
+        <v>1667.3</v>
       </c>
       <c r="G5" s="4">
-        <v>5100.7299999999996</v>
+        <v>5102.6000000000004</v>
       </c>
       <c r="H5" s="2">
-        <v>67.680000000000007</v>
+        <v>67.7</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
@@ -731,13 +739,13 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="4">
-        <v>1683.99</v>
+        <v>1683.97</v>
       </c>
       <c r="G6" s="4">
-        <v>3416.74</v>
+        <v>3418.63</v>
       </c>
       <c r="H6" s="2">
-        <v>51.01</v>
+        <v>51.03</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
@@ -776,13 +784,13 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="4">
-        <v>1700.83</v>
+        <v>1700.81</v>
       </c>
       <c r="G7" s="4">
-        <v>1715.91</v>
+        <v>1717.82</v>
       </c>
       <c r="H7" s="2">
-        <v>34.17</v>
+        <v>34.19</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
@@ -821,13 +829,13 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="4">
-        <v>1715.91</v>
+        <v>1717.82</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>19.09</v>
+        <v>17.18</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
@@ -863,15 +871,15 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -909,12 +917,12 @@
         <v>10053.33</v>
       </c>
       <c r="F2" s="4">
-        <v>8337.42</v>
+        <v>8335.51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>356.67</v>
+        <v>354.84</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -926,10 +934,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>356.67</v>
+        <v>354.84</v>
       </c>
       <c r="F3" s="2">
-        <v>337.58</v>
+        <v>337.66</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">

--- a/Finflux Automation Excels/Client/4925-EI-DB-SAR-PartialPeriod-InitialBrokenPeriod-PostInterest-Undo1stRepayment.xlsx
+++ b/Finflux Automation Excels/Client/4925-EI-DB-SAR-PartialPeriod-InitialBrokenPeriod-PostInterest-Undo1stRepayment.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
@@ -96,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,13 +106,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -146,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -164,7 +157,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,21 +490,21 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="10.7109375" style="7" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -604,10 +596,10 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="4">
-        <v>1632.64</v>
+        <v>1634.47</v>
       </c>
       <c r="G3" s="4">
-        <v>8420.69</v>
+        <v>8418.86</v>
       </c>
       <c r="H3" s="2">
         <v>100.53</v>
@@ -618,8 +610,8 @@
       <c r="J3" s="2">
         <v>0</v>
       </c>
-      <c r="K3" s="4">
-        <v>1733.17</v>
+      <c r="K3" s="6">
+        <v>1735</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
@@ -632,8 +624,8 @@
         <v>0</v>
       </c>
       <c r="P3" s="2"/>
-      <c r="Q3" s="4">
-        <v>1733.17</v>
+      <c r="Q3" s="6">
+        <v>1735</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -649,13 +641,13 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="4">
-        <v>1650.79</v>
+        <v>1650.81</v>
       </c>
       <c r="G4" s="4">
-        <v>6769.9</v>
+        <v>6768.05</v>
       </c>
       <c r="H4" s="2">
-        <v>84.21</v>
+        <v>84.19</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -694,13 +686,13 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="4">
-        <v>1667.3</v>
+        <v>1667.32</v>
       </c>
       <c r="G5" s="4">
-        <v>5102.6000000000004</v>
+        <v>5100.7299999999996</v>
       </c>
       <c r="H5" s="2">
-        <v>67.7</v>
+        <v>67.680000000000007</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
@@ -739,13 +731,13 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="4">
-        <v>1683.97</v>
+        <v>1683.99</v>
       </c>
       <c r="G6" s="4">
-        <v>3418.63</v>
+        <v>3416.74</v>
       </c>
       <c r="H6" s="2">
-        <v>51.03</v>
+        <v>51.01</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
@@ -784,13 +776,13 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="4">
-        <v>1700.81</v>
+        <v>1700.83</v>
       </c>
       <c r="G7" s="4">
-        <v>1717.82</v>
+        <v>1715.91</v>
       </c>
       <c r="H7" s="2">
-        <v>34.19</v>
+        <v>34.17</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
@@ -829,13 +821,13 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="4">
-        <v>1717.82</v>
+        <v>1715.91</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>17.18</v>
+        <v>19.09</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
@@ -871,15 +863,15 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -917,12 +909,12 @@
         <v>10053.33</v>
       </c>
       <c r="F2" s="4">
-        <v>8335.51</v>
+        <v>8337.42</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>354.84</v>
+        <v>356.67</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -934,10 +926,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>354.84</v>
+        <v>356.67</v>
       </c>
       <c r="F3" s="2">
-        <v>337.66</v>
+        <v>337.58</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
